--- a/relevant_properties_example.xlsx
+++ b/relevant_properties_example.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,7114 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Gujarati Vishwakosh entry</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jewish Encyclopedia ID (Russian)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>British Museum place ID</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>external data available at URL</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>social media followers</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>YIVO Encyclopedia of Jews in Eastern Europe ID</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.214285714285714</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>World Encyclopedia of Puppetry Arts ID</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gregorian calendar start date</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.333333333333334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Schoenberg Database of Manuscripts place ID</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.49999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Urban Electric Transit country ID</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Global Anabaptist Mennonite Encyclopedia Online ID</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.611111111111111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BHL creator ID</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Provenio UUID</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>studied by</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SBN place ID</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TripAdvisor ID</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.611111111111111</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Open Library ID</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Enzyklopädie des europäischen Ostens ID</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hrvatska enciklopedija ID</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.928571428571429</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Gyldendals Teaterleksikon ID</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UIC alphabetical country code</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Omni topic ID</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NSK ID</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Biblioteca Nacional de México ID</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>category for honorary citizens of entity</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.928571428571429</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>C-SPAN organization ID</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GS1 country code</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Instagram username</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.214285714285714</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Mindat locality ID</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>The Independent topic ID</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>participant in</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mapy.cz ID</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Trismegistos Geo ID</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.214285714285714</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Academy Awards Database nominee ID</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>age of consent</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NUTS code</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>bashenc.online ID</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.409090909090909</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Encyclopedie berbere keyword ID</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Marine Regions Geographic ID</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.500000000000003</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mastodon instance URL</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Reddit topic ID</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.2125</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.833333333333333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Personality Database profile ID</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>The Encyclopedia of Science Fiction ID</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>compulsory education (minimum age)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.928571428571429</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>UIC numerical country code</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TV Tropes ID</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>National Library of Ireland ID</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>National Library of Iceland ID</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.214285714285714</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CANTIC ID</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.214285714285714</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PeakVisor area ID</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Fandom article ID</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>The Encyclopedia of Fantasy ID</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>All the Tropes ID</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pontificia Università della Santa Croce ID</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.214285714285714</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>BHCL UUID</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>AIATSIS Place Thesaurus ID</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Bing entity ID</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>RERO ID (obsolete)</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DPLA subject term</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Foursquare City Guide venue ID</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Fandom wiki ID</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.928571428571429</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Know Your Meme ID</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>retirement age</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.611111111111111</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Colon Classification</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.500000000000003</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Giant Bomb ID</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.2125</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.833333333333333</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CiNii Research ID</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Golden ID</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>National Library of Korea ID</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>France24 topic ID (Arabic)</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>NORAF ID</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>coordinates of geographic center</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.214285714285714</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>WOEID</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Encyclopedia of the History of Ukraine ID</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.2125</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.833333333333333</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TDV İslam Ansiklopedisi ID</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>France24 topic ID (French)</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>official religion</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CiNii Books author ID</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Ávvir topic ID</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Image Archive, Herder Institute</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SAPA ID</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5.500000000000003</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Österreichisches Musiklexikon Online ID</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>official symbol</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SNOMED CT ID</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.214285714285714</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Visuotinė lietuvių enciklopedija ID</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>NCI Thesaurus ID</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.214285714285714</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>University of Barcelona authority ID</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.214285714285714</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>seal image</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Canadiana Authorities ID (former scheme)</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>BNMM authority ID</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>National Library of Brazil ID</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>speed limit</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>FactGrid item ID</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Online Books Page author ID</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.214285714285714</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>age of candidacy</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Joconde discovery ID</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.611111111111111</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CCAB ID</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1.214285714285714</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Thesaurus Sozialwissenschaften ID</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.409090909090909</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Baidu Tieba name</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Criminological Thesaurus ID</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>award received</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Wall Street Journal topic ID</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>nighttime view</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CANTIC ID (former scheme)</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>median income</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1.928571428571429</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Apple Maps ID</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1.611111111111111</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ISBN identifier group</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>railway traffic side</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5.500000000000003</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>patron saint</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.269230769230769</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Facebook ID</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Gynopedia ID</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>PACTOLS thesaurus ID</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Happy Planet Index score</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.904761904761905</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Democracy Index</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.904761904761905</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>HDS ID</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.904761904761905</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>open data portal</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.904761904761905</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Guardian topic ID</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.904761904761905</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>unemployment rate</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I119" t="n">
+        <v>9.999999999999991</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Zhihu topic ID</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I120" t="n">
+        <v>9.999999999999991</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Larousse ID</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.894736842105263</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.2125</v>
+      </c>
+      <c r="I121" t="n">
+        <v>5.250000000000002</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>suicide rate</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.894736842105263</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.2125</v>
+      </c>
+      <c r="I122" t="n">
+        <v>5.250000000000002</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Armeniapedia ID</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.894736842105263</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.2125</v>
+      </c>
+      <c r="I123" t="n">
+        <v>5.250000000000002</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Süddeutsche Zeitung topic ID</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.888888888888889</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>public holiday</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.888888888888889</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Dagens Nyheter topic ID</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.888888888888889</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CNA topic ID</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.882352941176471</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.1875000000000001</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>AGROVOC ID</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Open Library subject ID</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Google Maps Customer ID</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.857142857142857</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>significant event</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.857142857142857</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ethnic group</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.846153846153846</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.6875</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>relief location map</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.1250000000000001</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.555555555555556</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Basque Vikidia ID</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.1250000000000001</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.555555555555556</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>age of majority</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>NE.se ID</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Joconde location ID</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>CAB ID</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>NicoNicoPedia ID</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>category of people buried here</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>iDAI.gazetteer ID</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1.809523809523809</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.2125</v>
+      </c>
+      <c r="I141" t="n">
+        <v>9.499999999999991</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>maintained by WikiProject</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I142" t="n">
+        <v>5.000000000000001</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>main regulatory text</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.363636363636364</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>RationalWiki ID</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1.363636363636364</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>English Vikidia ID</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I145" t="n">
+        <v>5.000000000000001</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Portuguese National Library author ID</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1.363636363636364</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>X username</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.363636363636364</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ASC Leiden Thesaurus ID</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.789473684210526</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>trunk prefix</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.789473684210526</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Al-Jazeera topic ID</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.08750000000000001</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.291666666666667</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>MeSH term ID</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.08750000000000001</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.291666666666667</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>motto</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.08750000000000001</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.291666666666667</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>UMLS CUI</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1.764705882352941</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Italian Vikidia ID</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.764705882352941</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Stack Exchange tag</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.07499999999999997</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.230769230769231</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>location map</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>BTI Status Index</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.07499999999999997</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.230769230769231</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ICPSR Geographic Names Thesaurus ID</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.07499999999999997</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.230769230769231</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Vatican Library VcBA ID</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.07499999999999997</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1.230769230769231</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>BTI Governance Index</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.07499999999999997</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1.230769230769231</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Der Spiegel topic ID</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.739130434782609</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.2125</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>compulsory education (maximum age)</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.733333333333333</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.785714285714286</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>RKD thesaurus ID</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.727272727272727</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I163" t="n">
+        <v>8.999999999999991</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Google News topics ID</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Armenian Vikidia ID</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.178571428571429</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ScienceDirect topic ID</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1.178571428571429</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>National Library of Lithuania ID</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.178571428571429</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>National Library of Chile ID</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.178571428571429</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>GADM ID</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>has seal, badge, or sigil</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1.178571428571429</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>edition humboldt digital ID</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I171" t="n">
+        <v>4.750000000000001</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>NALT ID</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I172" t="n">
+        <v>4.750000000000001</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>PM20 geo code</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>De Agostini ID</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1.692307692307692</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>WorldCat Entities ID</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.68421052631579</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.1625000000000001</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2.625000000000001</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>aerial view</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1.133333333333333</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Nomisma ID</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1.133333333333333</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>GNS Unique Feature ID</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.133333333333333</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Britannica Kids kids level article ID</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.133333333333333</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>minimum temperature record</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Britannica Kids scholars level article ID</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.133333333333333</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Catholic Encyclopedia ID</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Britannica Kids students level article ID</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1.133333333333333</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>topic's main template</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>GitHub topic</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1.652173913043478</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I185" t="n">
+        <v>8.499999999999991</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>DR topic ID</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1.652173913043478</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I186" t="n">
+        <v>8.499999999999991</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Wolfram Language entity code</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.647058823529412</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1.916666666666666</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Le Figaro tag ID</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.636363636363636</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.318181818181818</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>spoken text audio</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.636363636363636</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1.318181818181818</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>SELIBR ID</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1.636363636363636</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1.318181818181818</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>highest judicial authority</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.619047619047619</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="I191" t="n">
+        <v>3.166666666666666</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Biblioteca Nacional de España ID</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.619047619047619</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3.166666666666666</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>licence plate code</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>BBC Things ID</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>maximum temperature record</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.07500000000000001</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Spanish Vikidia ID</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>water as percent of area</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.07500000000000001</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Proleksis enciklopedija ID</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.03750000000000001</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1.09375</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>literacy rate</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.07500000000000001</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>PLWABN ID</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.03750000000000001</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1.09375</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>has part(s)</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.03750000000000001</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1.09375</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>basic form of government</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Libraries Australia ID</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1.578947368421053</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="I203" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>DeCS ID</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1.571428571428572</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1.444444444444445</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>replaces</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1.565217391304348</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.1625000000000001</v>
+      </c>
+      <c r="I205" t="n">
+        <v>4.250000000000002</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>located in or next to body of water</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1.565217391304348</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.1625000000000001</v>
+      </c>
+      <c r="I206" t="n">
+        <v>4.250000000000002</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Early Modern Letters Online location ID</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1.555555555555555</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.06249999999999999</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1.192307692307692</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>executive body</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Analysis &amp; Policy Observatory term ID</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Wikisimpsons ID</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Encyclopedia of Modern Ukraine ID</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1.529411764705882</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1.642857142857143</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>MeSH tree code</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1.529411764705882</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1.642857142857143</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Dewey Decimal Classification</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1.523809523809524</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="I213" t="n">
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>museum-digital place ID</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="I214" t="n">
+        <v>7.499999999999994</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Treccani ID</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I215" t="n">
+        <v>4.000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
